--- a/scrap_assets/files/examples/customer_upload.xlsx
+++ b/scrap_assets/files/examples/customer_upload.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -478,16 +478,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -499,36 +499,36 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>12341</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <v>12341</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -539,10 +539,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
